--- a/exsel_m_f.xlsx
+++ b/exsel_m_f.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11250" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="12150" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -382,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,25 +1093,15 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>0.97569444444444453</v>
-      </c>
-      <c r="B89" s="2">
-        <v>0.9819444444444444</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="B90" s="2">
-        <v>0.98888888888888893</v>
-      </c>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="2">
-        <v>8.3333333333333332E-3</v>
-      </c>
+      <c r="B91" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exsel_m_f.xlsx
+++ b/exsel_m_f.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12150" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="12600" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
     <t>ot</t>
   </si>
   <si>
-    <t>*22:15</t>
-  </si>
-  <si>
-    <t>*23:15</t>
-  </si>
-  <si>
     <t>*13:15</t>
   </si>
   <si>
@@ -45,22 +39,28 @@
     <t>*10:45</t>
   </si>
   <si>
-    <t>*12:55:00</t>
-  </si>
-  <si>
-    <t>*14:30</t>
-  </si>
-  <si>
-    <t>*14:45</t>
-  </si>
-  <si>
-    <t>*15:05</t>
-  </si>
-  <si>
     <t>**23:05</t>
   </si>
   <si>
-    <t>**0:05</t>
+    <t>*22:15:00</t>
+  </si>
+  <si>
+    <t>**15:05</t>
+  </si>
+  <si>
+    <t>**14:45</t>
+  </si>
+  <si>
+    <t>**14:30</t>
+  </si>
+  <si>
+    <t>**12:55</t>
+  </si>
+  <si>
+    <t>*23:20</t>
+  </si>
+  <si>
+    <t>**0:05:00</t>
   </si>
 </sst>
 </file>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,10 +430,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>0.30555555555555552</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="B6" s="2">
-        <v>0.31944444444444448</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0.3298611111111111</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="B10" s="2">
         <v>0.34375</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="B11" s="2">
         <v>0.34722222222222227</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B12" s="2">
         <v>0.35069444444444442</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>0.34027777777777773</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="B13" s="2">
         <v>0.35416666666666669</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>0.35416666666666669</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="B14" s="2">
         <v>0.36805555555555558</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>0.3576388888888889</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="B15" s="2">
         <v>0.37152777777777773</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>0.36249999999999999</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="B16" s="2">
         <v>0.37638888888888888</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>0.37152777777777773</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="B17" s="2">
         <v>0.38541666666666669</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>0.37638888888888888</v>
+        <v>0.37361111111111112</v>
       </c>
       <c r="B18" s="2">
         <v>0.39027777777777778</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>0.37916666666666665</v>
+        <v>0.375</v>
       </c>
       <c r="B19" s="2">
         <v>0.39305555555555555</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>0.38055555555555554</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="B20" s="2">
         <v>0.39444444444444443</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>0.38194444444444442</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="B21" s="2">
         <v>0.39583333333333331</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="B22" s="2">
         <v>0.40972222222222227</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>0.40972222222222227</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="B23" s="2">
         <v>0.4236111111111111</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>0.42708333333333331</v>
+        <v>0.40625</v>
       </c>
       <c r="B24" s="2">
         <v>0.44097222222222227</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>0.43402777777777773</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="B25" s="2">
         <v>0.44791666666666669</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>0.4375</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="B26" s="2">
         <v>0.4513888888888889</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>0.43958333333333338</v>
+        <v>0.4375</v>
       </c>
       <c r="B27" s="2">
         <v>0.45347222222222222</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0.44305555555555554</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="B28" s="2">
         <v>0.45694444444444443</v>
@@ -614,42 +614,42 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.44305555555555554</v>
       </c>
       <c r="B29" s="2">
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
+      <c r="A30" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.48055555555555557</v>
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>0.48055555555555557</v>
+        <v>0.47083333333333338</v>
       </c>
       <c r="B32" s="2">
-        <v>0.49652777777777773</v>
+        <v>0.48472222222222222</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>0.4909722222222222</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="B33" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.49652777777777773</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="B34" s="2">
-        <v>0.50486111111111109</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,63 +665,63 @@
         <v>0.49444444444444446</v>
       </c>
       <c r="B35" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>0.49652777777777773</v>
+        <v>0.5</v>
       </c>
       <c r="B36" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.51597222222222217</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>0.50208333333333333</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="B37" s="2">
-        <v>0.51597222222222217</v>
+        <v>0.52222222222222225</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>0.57638888888888895</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B41" s="2">
-        <v>0.59166666666666667</v>
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>0.59375</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="B42" s="2">
-        <v>0.61319444444444449</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,379 +729,405 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="B43" s="2">
-        <v>0.62847222222222221</v>
+        <v>0.62777777777777777</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="B44" s="2">
-        <v>0.6381944444444444</v>
+        <v>0.64374999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>0.65277777777777779</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="B45" s="2">
-        <v>0.65</v>
+        <v>0.64930555555555558</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>0.67013888888888884</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="B46" s="2">
-        <v>0.66805555555555562</v>
+        <v>0.65972222222222221</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>0.67708333333333337</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="B47" s="2">
-        <v>0.68472222222222223</v>
+        <v>0.67638888888888893</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>0.68055555555555547</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="B48" s="2">
-        <v>0.69652777777777775</v>
+        <v>0.68888888888888899</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>0.6875</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="B49" s="2">
-        <v>0.70208333333333339</v>
+        <v>0.69861111111111107</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.6875</v>
       </c>
       <c r="B50" s="2">
-        <v>0.71527777777777779</v>
+        <v>0.70347222222222217</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>0.71180555555555547</v>
+        <v>0.69652777777777775</v>
       </c>
       <c r="B51" s="2">
-        <v>0.72638888888888886</v>
+        <v>0.7104166666666667</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>0.71875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B52" s="2">
-        <v>0.7319444444444444</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>0.72222222222222221</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="B53" s="2">
-        <v>0.73402777777777783</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>0.72569444444444453</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="B54" s="2">
-        <v>0.73958333333333337</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>0.74305555555555547</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="B55" s="2">
-        <v>0.75486111111111109</v>
+        <v>0.7416666666666667</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>0.74652777777777779</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="B56" s="2">
-        <v>0.75902777777777775</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>0.75</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="B57" s="2">
-        <v>0.76388888888888884</v>
+        <v>0.75902777777777775</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>0.75694444444444453</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="B58" s="2">
-        <v>0.76874999999999993</v>
+        <v>0.76111111111111107</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>0.76041666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="B59" s="2">
-        <v>0.77430555555555547</v>
+        <v>0.76944444444444438</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>0.76736111111111116</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="B60" s="2">
-        <v>0.78194444444444444</v>
+        <v>0.77430555555555547</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>0.77430555555555547</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="B61" s="2">
-        <v>0.78680555555555554</v>
+        <v>0.77986111111111101</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>0.77777777777777779</v>
+        <v>0.76736111111111116</v>
       </c>
       <c r="B62" s="2">
-        <v>0.79305555555555562</v>
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>0.78819444444444453</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="B63" s="2">
-        <v>0.8027777777777777</v>
+        <v>0.79375000000000007</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="B64" s="2">
-        <v>0.8041666666666667</v>
+        <v>0.8027777777777777</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>0.79513888888888884</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B65" s="2">
-        <v>0.80763888888888891</v>
+        <v>0.80694444444444446</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>0.79861111111111116</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="B66" s="2">
-        <v>0.81388888888888899</v>
+        <v>0.81111111111111101</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>0.80902777777777779</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="B67" s="2">
-        <v>0.82361111111111107</v>
+        <v>0.81944444444444453</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>0.8125</v>
+        <v>0.80902777777777779</v>
       </c>
       <c r="B68" s="2">
-        <v>0.82708333333333339</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>0.81944444444444453</v>
+        <v>0.8125</v>
       </c>
       <c r="B69" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.82638888888888884</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>0.82638888888888884</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="B70" s="2">
-        <v>0.84027777777777779</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>0.82986111111111116</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="B71" s="2">
-        <v>0.84444444444444444</v>
+        <v>0.84027777777777779</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>0.84027777777777779</v>
+        <v>0.82986111111111116</v>
       </c>
       <c r="B72" s="2">
-        <v>0.85486111111111107</v>
+        <v>0.84444444444444444</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.8354166666666667</v>
       </c>
       <c r="B73" s="2">
-        <v>0.86597222222222225</v>
+        <v>0.85138888888888886</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>0.86111111111111116</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="B74" s="2">
-        <v>0.86805555555555547</v>
+        <v>0.8618055555555556</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>0.86805555555555547</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="B75" s="2">
-        <v>0.87430555555555556</v>
+        <v>0.86875000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>0.87152777777777779</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="B76" s="2">
-        <v>0.88194444444444453</v>
+        <v>0.87291666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>0.87847222222222221</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="B77" s="2">
-        <v>0.88611111111111107</v>
+        <v>0.87777777777777777</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>0.88194444444444453</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="B78" s="2">
-        <v>0.89097222222222217</v>
+        <v>0.8847222222222223</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>0.89236111111111116</v>
+        <v>0.875</v>
       </c>
       <c r="B79" s="2">
-        <v>0.89444444444444438</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>0.90625</v>
+        <v>0.88194444444444453</v>
       </c>
       <c r="B80" s="2">
-        <v>0.90416666666666667</v>
+        <v>0.89513888888888893</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>0.90763888888888899</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="B81" s="2">
-        <v>0.92083333333333339</v>
+        <v>0.90416666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>0.91805555555555562</v>
+        <v>0.90625</v>
       </c>
       <c r="B82" s="2">
-        <v>0.92152777777777783</v>
+        <v>0.91875000000000007</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>2</v>
+      <c r="A83" s="2">
+        <v>0.90972222222222221</v>
       </c>
       <c r="B83" s="2">
-        <v>0.93125000000000002</v>
+        <v>0.92708333333333337</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.93611111111111101</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="B85" s="2">
-        <v>0.95624999999999993</v>
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>0.96180555555555547</v>
+        <v>0.94097222222222221</v>
       </c>
       <c r="B86" s="2">
-        <v>0.96388888888888891</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>3</v>
+      <c r="A87" s="2">
+        <v>0.95138888888888884</v>
       </c>
       <c r="B87" s="2">
-        <v>0.97638888888888886</v>
+        <v>0.96319444444444446</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>0.97013888888888899</v>
-      </c>
-      <c r="B88" t="s">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-    </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="2">
+        <v>0.97569444444444453</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.98819444444444438</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
+      <c r="A91" s="2">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.99513888888888891</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2.4305555555555556E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2">
+        <v>5.6250000000000001E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exsel_m_f.xlsx
+++ b/exsel_m_f.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="13500" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,28 +39,28 @@
     <t>*10:45</t>
   </si>
   <si>
-    <t>**23:05</t>
-  </si>
-  <si>
-    <t>*22:15:00</t>
-  </si>
-  <si>
-    <t>**15:05</t>
-  </si>
-  <si>
-    <t>**14:45</t>
-  </si>
-  <si>
-    <t>**14:30</t>
-  </si>
-  <si>
-    <t>**12:55</t>
-  </si>
-  <si>
     <t>*23:20</t>
   </si>
   <si>
-    <t>**0:05:00</t>
+    <t>*12:55</t>
+  </si>
+  <si>
+    <t>*14:30</t>
+  </si>
+  <si>
+    <t>*14:45</t>
+  </si>
+  <si>
+    <t>*15:05</t>
+  </si>
+  <si>
+    <t>*23:05</t>
+  </si>
+  <si>
+    <t>*0:05</t>
+  </si>
+  <si>
+    <t>*22:15</t>
   </si>
 </sst>
 </file>
@@ -382,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,10 +1062,10 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,10 +1094,10 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
